--- a/main/data/TotalData.xlsx
+++ b/main/data/TotalData.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.013</v>
+        <v>16.911</v>
       </c>
       <c r="D2" t="n">
-        <v>190.4</v>
+        <v>5486.6</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.796</v>
+        <v>17.295</v>
       </c>
       <c r="D3" t="n">
-        <v>368</v>
+        <v>191.4</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.253</v>
+        <v>18.119</v>
       </c>
       <c r="D4" t="n">
-        <v>226.6</v>
+        <v>175.8</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.461</v>
+        <v>17.086</v>
       </c>
       <c r="D5" t="n">
-        <v>192</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.835</v>
+        <v>17.516</v>
       </c>
       <c r="D6" t="n">
-        <v>481.6</v>
+        <v>182.8</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.765</v>
+        <v>16.667</v>
       </c>
       <c r="D7" t="n">
-        <v>1368</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.88</v>
+        <v>15.976</v>
       </c>
       <c r="D8" t="n">
-        <v>456</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.035</v>
+        <v>15.696</v>
       </c>
       <c r="D9" t="n">
-        <v>307.8</v>
+        <v>177.6</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.015</v>
+        <v>15.684</v>
       </c>
       <c r="D10" t="n">
-        <v>111.2</v>
+        <v>154.2</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.957</v>
+        <v>17.083</v>
       </c>
       <c r="D11" t="n">
-        <v>55.2</v>
+        <v>154.2</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.58</v>
+        <v>16.188</v>
       </c>
       <c r="D12" t="n">
-        <v>841.6</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19.641</v>
+        <v>17.337</v>
       </c>
       <c r="D13" t="n">
-        <v>971.2</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26.754</v>
+        <v>17.594</v>
       </c>
       <c r="D14" t="n">
-        <v>636.2</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.961</v>
+        <v>17.273</v>
       </c>
       <c r="D15" t="n">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.695</v>
+        <v>17.613</v>
       </c>
       <c r="D16" t="n">
-        <v>131.2</v>
+        <v>133.2</v>
       </c>
     </row>
   </sheetData>

--- a/main/data/TotalData.xlsx
+++ b/main/data/TotalData.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Average Memory Usage (mb)</t>
+          <t>Average Memory Usage (bytes)</t>
         </is>
       </c>
     </row>
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.911</v>
+        <v>17.599</v>
       </c>
       <c r="D2" t="n">
-        <v>5486.6</v>
+        <v>5608.2</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.295</v>
+        <v>16.262</v>
       </c>
       <c r="D3" t="n">
         <v>191.4</v>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.119</v>
+        <v>18.036</v>
       </c>
       <c r="D4" t="n">
         <v>175.8</v>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.086</v>
+        <v>16.223</v>
       </c>
       <c r="D5" t="n">
         <v>176.4</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.516</v>
+        <v>18.094</v>
       </c>
       <c r="D6" t="n">
         <v>182.8</v>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16.667</v>
+        <v>18.486</v>
       </c>
       <c r="D7" t="n">
         <v>184</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15.976</v>
+        <v>18.107</v>
       </c>
       <c r="D8" t="n">
         <v>123</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15.696</v>
+        <v>16.079</v>
       </c>
       <c r="D9" t="n">
         <v>177.6</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15.684</v>
+        <v>16.241</v>
       </c>
       <c r="D10" t="n">
         <v>154.2</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.083</v>
+        <v>16.622</v>
       </c>
       <c r="D11" t="n">
         <v>154.2</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16.188</v>
+        <v>16.828</v>
       </c>
       <c r="D12" t="n">
         <v>154.4</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.337</v>
+        <v>16.807</v>
       </c>
       <c r="D13" t="n">
         <v>176.4</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.594</v>
+        <v>17.333</v>
       </c>
       <c r="D14" t="n">
         <v>183.8</v>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17.273</v>
+        <v>16.832</v>
       </c>
       <c r="D15" t="n">
         <v>123</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17.613</v>
+        <v>17.522</v>
       </c>
       <c r="D16" t="n">
         <v>133.2</v>
